--- a/4-24 重庆国寿快捷垫付绿通卡/产品配置表格V1.0.xlsx
+++ b/4-24 重庆国寿快捷垫付绿通卡/产品配置表格V1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>产品标识码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,14 @@
   </si>
   <si>
     <t>钻石垫付卡-10年期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白金垫付卡-10年期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白金垫付卡-5年期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +580,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -619,7 +627,9 @@
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
@@ -662,7 +672,9 @@
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
@@ -765,11 +777,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="F2:F4"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A8:A10"/>
@@ -780,6 +787,11 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="F5:F7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F2:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
